--- a/findbyfilewebelement/src/test/resources/excel/ValidFilePathData.xlsx
+++ b/findbyfilewebelement/src/test/resources/excel/ValidFilePathData.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="FieldDetails" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Using</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>file.excel.pagefactory.ExcelFileProcessorTest$ValidFilePathPage</t>
+  </si>
+  <si>
+    <t>file.excel.pagefactory.ExcelFileProcessorTest$ValidFilePathCustomSheetPage</t>
+  </si>
+  <si>
+    <t>validFilePathCustomSheet</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -380,22 +389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -438,4 +435,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/findbyfilewebelement/src/test/resources/excel/ValidFilePathData.xlsx
+++ b/findbyfilewebelement/src/test/resources/excel/ValidFilePathData.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="FieldDetails" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Using</t>
   </si>
@@ -37,15 +37,6 @@
   </si>
   <si>
     <t>file.excel.pagefactory.ExcelFileProcessorTest$ValidFilePathPage</t>
-  </si>
-  <si>
-    <t>file.excel.pagefactory.ExcelFileProcessorTest$ValidFilePathCustomSheetPage</t>
-  </si>
-  <si>
-    <t>validFilePathCustomSheet</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -439,46 +430,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/findbyfilewebelement/src/test/resources/excel/ValidFilePathData.xlsx
+++ b/findbyfilewebelement/src/test/resources/excel/ValidFilePathData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2190" windowWidth="13455" windowHeight="6750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:G21"/>
 </workbook>
 </file>
 
@@ -382,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -432,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/findbyfilewebelement/src/test/resources/excel/ValidFilePathData.xlsx
+++ b/findbyfilewebelement/src/test/resources/excel/ValidFilePathData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2190" windowWidth="13455" windowHeight="6750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2190" windowWidth="14670" windowHeight="6750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:G21"/>
+  <oleSize ref="A1:H21"/>
 </workbook>
 </file>
 
@@ -37,7 +37,7 @@
     <t>validFilePath</t>
   </si>
   <si>
-    <t>file.excel.pagefactory.ExcelFileProcessorTest$ValidFilePathPage</t>
+    <t>file.pagefactory.excel.ExcelFileProcessorTest$ValidFilePathPage</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
